--- a/data copy/Motivation im Onlineunterricht 2BAIF_(1-10) Spanring_.xlsx
+++ b/data copy/Motivation im Onlineunterricht 2BAIF_(1-10) Spanring_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Dropbox\Python\dataanalysisebert\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C2A73B-941D-405B-A879-A08F933F2ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EAA03B-D920-4E65-9C85-A063863C9E0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Kreuze an, welche Vorteile der Unterricht im Klassenzimmer gegenüber dem Onlineunterricht hat.</t>
   </si>
   <si>
-    <t>Wenn du bei Frage 14 "Sonstige" angekreuzt hast, gib an, was du dabei gemeint hast.</t>
-  </si>
-  <si>
     <t>Hast du den Eindruck, dass  ältere Lehrkräfte (&gt;35 Jahre) im Allgemeinen schlechter mit der Gestaltung des  Onlineunterrichts zurecht kommen tun als jüngere Lehrkräfte? (5 Sterne= trifft voll zu)</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>2BAIF</t>
+  </si>
+  <si>
+    <t>Wenn du bei Frage 4 "Sonstige" angekreuzt hast, gib an, was du dabei gemeint hast.</t>
   </si>
 </sst>
 </file>
@@ -239,7 +239,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -272,7 +272,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -377,10 +377,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -431,7 +431,7 @@
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="wenn andere im Onlineunterricht gelobt werden" dataDxfId="8"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Ergänze hier Faktoren, die deine Freude am Onlineunterricht erhöhen, die bei Frage 12 nicht genannt sind." dataDxfId="7"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Kreuze an, welche Vorteile der Unterricht im Klassenzimmer gegenüber dem Onlineunterricht hat." dataDxfId="6"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Wenn du bei Frage 14 &quot;Sonstige&quot; angekreuzt hast, gib an, was du dabei gemeint hast." dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Wenn du bei Frage 4 &quot;Sonstige&quot; angekreuzt hast, gib an, was du dabei gemeint hast." dataDxfId="5"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Hast du den Eindruck, dass  ältere Lehrkräfte (&gt;35 Jahre) im Allgemeinen schlechter mit der Gestaltung des  Onlineunterrichts zurecht kommen tun als jüngere Lehrkräfte? (5 Sterne= trifft voll zu)" dataDxfId="4"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Ich fände es gut, wenn auch in Zukunft ein Teil des Unterrichts online stattfindet (5 Sterne = trifft voll zu)" dataDxfId="3"/>
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Kommentare" dataDxfId="2"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,22 +839,22 @@
         <v>28</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="AH1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" t="s">
         <v>64</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -868,21 +868,21 @@
         <v>44264.930740740703</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J2">
         <v>5</v>
       </c>
@@ -899,67 +899,67 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="U2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="AH2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -973,77 +973,77 @@
         <v>44264.947129629603</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
@@ -1055,10 +1055,10 @@
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1072,20 +1072,20 @@
         <v>44264.9480092593</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1103,47 +1103,47 @@
         <v>3</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4">
@@ -1154,10 +1154,10 @@
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -1171,78 +1171,78 @@
         <v>44264.978611111103</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="3" t="s">
+      <c r="V5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="X5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5">
@@ -1253,10 +1253,10 @@
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI5" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1270,17 +1270,17 @@
         <v>44265.0158912037</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6">
@@ -1299,49 +1299,49 @@
         <v>3</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AE6">
@@ -1351,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -1371,20 +1371,20 @@
         <v>44265.069884259297</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1402,49 +1402,49 @@
         <v>1</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="X7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7">
@@ -1454,13 +1454,13 @@
         <v>5</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI7" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -1474,20 +1474,20 @@
         <v>44265.071562500001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1505,46 +1505,46 @@
         <v>1</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="V8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -1556,10 +1556,10 @@
       </c>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI8" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -1573,20 +1573,20 @@
         <v>44265.3666898148</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1604,47 +1604,47 @@
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9">
@@ -1655,10 +1655,10 @@
       </c>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI9" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -1672,20 +1672,20 @@
         <v>44267.5519444444</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1703,49 +1703,49 @@
         <v>4</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="3" t="s">
+      <c r="V10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="X10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10">
@@ -1756,10 +1756,10 @@
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -1773,20 +1773,20 @@
         <v>44270.728020833303</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1804,47 +1804,47 @@
         <v>1</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="V11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11">
@@ -1854,13 +1854,13 @@
         <v>5</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AH11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI11" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
